--- a/MIDITeensy3.2/MIDITeensy3.2_bom.xlsx
+++ b/MIDITeensy3.2/MIDITeensy3.2_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aokudrya/Documents/GitHub/Midi-boards/MIDITeensy3.2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C85E7A-2ED8-134F-ADC2-53A7E6CE0BE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D48509C-3B49-6746-8215-D389CDC526CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{71D61E79-0498-904A-B799-3403509F1DD9}"/>
+    <workbookView xWindow="760" yWindow="500" windowWidth="28040" windowHeight="16440" xr2:uid="{71D61E79-0498-904A-B799-3403509F1DD9}"/>
   </bookViews>
   <sheets>
     <sheet name="MIDITeensy3" sheetId="1" r:id="rId1"/>
@@ -91,9 +91,6 @@
     <t>U4</t>
   </si>
   <si>
-    <t>Teensy3.2</t>
-  </si>
-  <si>
     <t>J2</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
     <t>ICs:</t>
   </si>
   <si>
-    <t>Programmed Microcontroller</t>
-  </si>
-  <si>
     <t>Optocoupler</t>
   </si>
   <si>
@@ -305,6 +299,12 @@
   </si>
   <si>
     <t xml:space="preserve">* Beginner soldering skills required. That means you have to understand schematics, not just being able to solder two wires together. There are no high expectations, but being able to read schematics and understand polarity of components are quite important.		</t>
+  </si>
+  <si>
+    <t>Programmed Microcontroller  (not included)</t>
+  </si>
+  <si>
+    <t>Teensy3.2 at PJRC.COM</t>
   </si>
 </sst>
 </file>
@@ -492,6 +492,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -513,10 +517,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -837,7 +837,7 @@
   <dimension ref="A2:W95"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:E33"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -867,34 +867,34 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="31" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="15"/>
+      <c r="A2" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -905,7 +905,7 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3">
@@ -914,7 +914,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -927,10 +927,10 @@
         <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -939,10 +939,10 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -953,7 +953,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -963,10 +963,10 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D14" s="4">
         <v>104</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -987,13 +987,13 @@
     <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E17" s="3">
         <v>6</v>
@@ -1002,13 +1002,13 @@
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18" s="3">
         <v>3</v>
@@ -1017,13 +1017,13 @@
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E19" s="3">
         <v>3</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1041,7 +1041,7 @@
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1065,13 +1065,13 @@
     <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E25" s="3">
         <v>6</v>
@@ -1081,10 +1081,10 @@
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E26" s="3">
         <v>2</v>
@@ -1094,10 +1094,10 @@
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E27" s="3">
         <v>1</v>
@@ -1108,7 +1108,7 @@
         <v>24</v>
       </c>
       <c r="T28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U28">
         <v>24</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -1132,7 +1132,7 @@
         <v>24</v>
       </c>
       <c r="T29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U29">
         <v>24</v>
@@ -1144,26 +1144,26 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:23" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="24"/>
+    <row r="30" spans="1:23" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
     </row>
     <row r="31" spans="1:23" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
+      <c r="A31" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
       <c r="S31">
         <v>24</v>
       </c>
       <c r="T31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U31">
         <v>24</v>
@@ -1177,23 +1177,23 @@
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:23" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="18"/>
+      <c r="A33" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="22"/>
       <c r="S33">
         <v>24</v>
       </c>
       <c r="T33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U33">
         <v>24</v>
@@ -1206,18 +1206,18 @@
       </c>
     </row>
     <row r="34" spans="1:23" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="18"/>
+      <c r="A34" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
       <c r="S34">
         <v>24</v>
       </c>
       <c r="T34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="U34">
         <v>24</v>
@@ -1230,18 +1230,18 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
+      <c r="A35" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
       <c r="S35">
         <v>25</v>
       </c>
       <c r="T35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U35">
         <v>25</v>
@@ -1260,7 +1260,7 @@
         <v>31</v>
       </c>
       <c r="T36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="U36">
         <v>31</v>
@@ -1282,7 +1282,7 @@
         <v>33</v>
       </c>
       <c r="T37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U37">
         <v>33</v>
@@ -1299,7 +1299,7 @@
         <v>33</v>
       </c>
       <c r="T38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U38">
         <v>33</v>
@@ -1316,7 +1316,7 @@
         <v>33</v>
       </c>
       <c r="T39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="U39">
         <v>33</v>
@@ -1333,7 +1333,7 @@
         <v>53</v>
       </c>
       <c r="T40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U40">
         <v>53</v>
@@ -1350,7 +1350,7 @@
         <v>53</v>
       </c>
       <c r="T41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U41">
         <v>53</v>
@@ -1367,7 +1367,7 @@
         <v>53</v>
       </c>
       <c r="T42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U42">
         <v>53</v>
@@ -1384,7 +1384,7 @@
         <v>54</v>
       </c>
       <c r="T43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U43">
         <v>54</v>
@@ -1401,7 +1401,7 @@
         <v>55</v>
       </c>
       <c r="T44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U44">
         <v>55</v>
@@ -1418,7 +1418,7 @@
         <v>56</v>
       </c>
       <c r="T45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U45">
         <v>56</v>
@@ -1435,7 +1435,7 @@
         <v>57</v>
       </c>
       <c r="T46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U46">
         <v>57</v>
@@ -1452,7 +1452,7 @@
         <v>58</v>
       </c>
       <c r="T47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U47">
         <v>58</v>
@@ -1469,7 +1469,7 @@
         <v>59</v>
       </c>
       <c r="T48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U48">
         <v>59</v>
@@ -1486,7 +1486,7 @@
         <v>60</v>
       </c>
       <c r="T49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U49">
         <v>60</v>
@@ -1503,7 +1503,7 @@
         <v>61</v>
       </c>
       <c r="T50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U50">
         <v>61</v>
@@ -1520,7 +1520,7 @@
         <v>62</v>
       </c>
       <c r="T51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U51">
         <v>62</v>
@@ -1537,7 +1537,7 @@
         <v>63</v>
       </c>
       <c r="T52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U52">
         <v>63</v>
@@ -1554,7 +1554,7 @@
         <v>64</v>
       </c>
       <c r="T53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U53">
         <v>64</v>
@@ -1571,7 +1571,7 @@
         <v>65</v>
       </c>
       <c r="T54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U54">
         <v>65</v>
@@ -1588,7 +1588,7 @@
         <v>66</v>
       </c>
       <c r="T55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U55">
         <v>66</v>
@@ -1605,7 +1605,7 @@
         <v>67</v>
       </c>
       <c r="T56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U56">
         <v>67</v>
@@ -1622,7 +1622,7 @@
         <v>68</v>
       </c>
       <c r="T57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U57">
         <v>68</v>
@@ -1639,7 +1639,7 @@
         <v>69</v>
       </c>
       <c r="T58" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U58">
         <v>69</v>
@@ -1656,7 +1656,7 @@
         <v>70</v>
       </c>
       <c r="T59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U59">
         <v>70</v>
@@ -1673,7 +1673,7 @@
         <v>71</v>
       </c>
       <c r="T60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U60">
         <v>71</v>
@@ -1690,7 +1690,7 @@
         <v>71</v>
       </c>
       <c r="T61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U61">
         <v>71</v>
@@ -1707,7 +1707,7 @@
         <v>71</v>
       </c>
       <c r="T62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="U62">
         <v>71</v>
@@ -1724,7 +1724,7 @@
         <v>72</v>
       </c>
       <c r="T63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U63">
         <v>72</v>
@@ -1741,7 +1741,7 @@
         <v>72</v>
       </c>
       <c r="T64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U64">
         <v>72</v>
@@ -1758,7 +1758,7 @@
         <v>72</v>
       </c>
       <c r="T65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U65">
         <v>72</v>
@@ -1775,7 +1775,7 @@
         <v>73</v>
       </c>
       <c r="T66" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="U66">
         <v>73</v>
@@ -1784,7 +1784,7 @@
         <v>1</v>
       </c>
       <c r="W66" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="19:23" x14ac:dyDescent="0.2">
@@ -1792,7 +1792,7 @@
         <v>74</v>
       </c>
       <c r="T67" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U67">
         <v>74</v>
@@ -1801,7 +1801,7 @@
         <v>2</v>
       </c>
       <c r="W67" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="19:23" x14ac:dyDescent="0.2">
@@ -1809,7 +1809,7 @@
         <v>75</v>
       </c>
       <c r="T68" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U68">
         <v>75</v>
@@ -1818,7 +1818,7 @@
         <v>3</v>
       </c>
       <c r="W68" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="19:23" x14ac:dyDescent="0.2">
@@ -1826,7 +1826,7 @@
         <v>76</v>
       </c>
       <c r="T69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U69">
         <v>76</v>
@@ -1835,7 +1835,7 @@
         <v>5</v>
       </c>
       <c r="W69" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="19:23" x14ac:dyDescent="0.2">
@@ -1843,7 +1843,7 @@
         <v>76</v>
       </c>
       <c r="T70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U70">
         <v>76</v>
@@ -1860,7 +1860,7 @@
         <v>76</v>
       </c>
       <c r="T71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="U71">
         <v>76</v>
@@ -1877,7 +1877,7 @@
         <v>77</v>
       </c>
       <c r="T72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="U72">
         <v>77</v>
@@ -1886,7 +1886,7 @@
         <v>1</v>
       </c>
       <c r="W72" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="19:23" x14ac:dyDescent="0.2">
@@ -1894,7 +1894,7 @@
         <v>78</v>
       </c>
       <c r="T73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="U73">
         <v>78</v>
@@ -1903,7 +1903,7 @@
         <v>2</v>
       </c>
       <c r="W73" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="19:23" x14ac:dyDescent="0.2">
@@ -1911,7 +1911,7 @@
         <v>79</v>
       </c>
       <c r="T74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U74">
         <v>79</v>
@@ -1920,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="W74" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="19:23" x14ac:dyDescent="0.2">
@@ -1928,7 +1928,7 @@
         <v>80</v>
       </c>
       <c r="T75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U75">
         <v>80</v>
@@ -1937,7 +1937,7 @@
         <v>5</v>
       </c>
       <c r="W75" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="19:23" x14ac:dyDescent="0.2">
@@ -1945,7 +1945,7 @@
         <v>80</v>
       </c>
       <c r="T76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U76">
         <v>80</v>
@@ -1962,7 +1962,7 @@
         <v>80</v>
       </c>
       <c r="T77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="U77">
         <v>80</v>
@@ -1979,7 +1979,7 @@
         <v>81</v>
       </c>
       <c r="T78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="U78">
         <v>81</v>
@@ -1988,7 +1988,7 @@
         <v>1</v>
       </c>
       <c r="W78" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="79" spans="19:23" x14ac:dyDescent="0.2">
@@ -1996,7 +1996,7 @@
         <v>82</v>
       </c>
       <c r="T79" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="U79">
         <v>82</v>
@@ -2005,7 +2005,7 @@
         <v>2</v>
       </c>
       <c r="W79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="80" spans="19:23" x14ac:dyDescent="0.2">
@@ -2013,7 +2013,7 @@
         <v>83</v>
       </c>
       <c r="T80" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U80">
         <v>83</v>
@@ -2022,7 +2022,7 @@
         <v>3</v>
       </c>
       <c r="W80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="81" spans="19:23" x14ac:dyDescent="0.2">
@@ -2030,7 +2030,7 @@
         <v>84</v>
       </c>
       <c r="T81" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U81">
         <v>84</v>
@@ -2039,7 +2039,7 @@
         <v>5</v>
       </c>
       <c r="W81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="82" spans="19:23" x14ac:dyDescent="0.2">
@@ -2047,7 +2047,7 @@
         <v>84</v>
       </c>
       <c r="T82" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U82">
         <v>84</v>
@@ -2064,7 +2064,7 @@
         <v>84</v>
       </c>
       <c r="T83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="U83">
         <v>84</v>
@@ -2081,7 +2081,7 @@
         <v>85</v>
       </c>
       <c r="T84" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="U84">
         <v>85</v>
@@ -2090,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="W84" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="85" spans="19:23" x14ac:dyDescent="0.2">
@@ -2098,7 +2098,7 @@
         <v>86</v>
       </c>
       <c r="T85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="U85">
         <v>86</v>
@@ -2107,7 +2107,7 @@
         <v>3</v>
       </c>
       <c r="W85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="19:23" x14ac:dyDescent="0.2">
@@ -2115,7 +2115,7 @@
         <v>87</v>
       </c>
       <c r="T86" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U86">
         <v>87</v>
@@ -2124,7 +2124,7 @@
         <v>1</v>
       </c>
       <c r="W86" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="19:23" x14ac:dyDescent="0.2">
@@ -2132,7 +2132,7 @@
         <v>88</v>
       </c>
       <c r="T87" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U87">
         <v>88</v>
@@ -2141,7 +2141,7 @@
         <v>3</v>
       </c>
       <c r="W87" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="88" spans="19:23" x14ac:dyDescent="0.2">
@@ -2149,7 +2149,7 @@
         <v>89</v>
       </c>
       <c r="T88" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U88">
         <v>89</v>
@@ -2158,7 +2158,7 @@
         <v>4</v>
       </c>
       <c r="W88" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="19:23" x14ac:dyDescent="0.2">
@@ -2166,7 +2166,7 @@
         <v>89</v>
       </c>
       <c r="T89" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U89">
         <v>89</v>
@@ -2183,7 +2183,7 @@
         <v>90</v>
       </c>
       <c r="T90" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U90">
         <v>90</v>
@@ -2200,7 +2200,7 @@
         <v>90</v>
       </c>
       <c r="T91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U91">
         <v>90</v>
@@ -2209,7 +2209,7 @@
         <v>5</v>
       </c>
       <c r="W91" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="92" spans="19:23" x14ac:dyDescent="0.2">
@@ -2217,7 +2217,7 @@
         <v>91</v>
       </c>
       <c r="T92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U92">
         <v>91</v>
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="W92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="93" spans="19:23" x14ac:dyDescent="0.2">
@@ -2234,7 +2234,7 @@
         <v>92</v>
       </c>
       <c r="T93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U93">
         <v>92</v>
@@ -2243,7 +2243,7 @@
         <v>3</v>
       </c>
       <c r="W93" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="94" spans="19:23" x14ac:dyDescent="0.2">
@@ -2251,7 +2251,7 @@
         <v>93</v>
       </c>
       <c r="T94" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U94">
         <v>93</v>
@@ -2268,7 +2268,7 @@
         <v>93</v>
       </c>
       <c r="T95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U95">
         <v>93</v>
@@ -2277,7 +2277,7 @@
         <v>4</v>
       </c>
       <c r="W95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
